--- a/file/NOBO_Cluster_HMI_软件冒烟测试报告_v1.0_1029.xlsx
+++ b/file/NOBO_Cluster_HMI_软件冒烟测试报告_v1.0_1029.xlsx
@@ -12426,8 +12426,8 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{f7bb6882-f5df-48f0-8f59-c2781552d1a2}" name="zengyutong" id="-809456354" dateTime="2020-10-29T14:17:43"/>
-  <userInfo guid="{1a2024da-8b94-46c5-afe8-c137c7e0d543}" name="Administrator" id="-524792172" dateTime="2020-10-29T14:18:05"/>
+  <userInfo guid="{F7BB6882-F5DF-48F0-8F59-C2781552D1A2}" name="zengyutong" id="-809456354" dateTime="2020-10-29T14:17:43"/>
+  <userInfo guid="{1A2024DA-8B94-46C5-AFE8-C137C7E0D543}" name="Administrator" id="-524792172" dateTime="2020-10-29T14:18:05"/>
 </users>
 </file>
 
